--- a/housing.xlsx
+++ b/housing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>RM</t>
   </si>
@@ -44,12 +44,18 @@
   <si>
     <t>Ratio of students to teachers in primary and secondary schools in the neighbourhood</t>
   </si>
+  <si>
+    <t>Correlation Matrix</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +186,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -526,8 +548,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -601,6 +626,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RM VS MEDV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3635,11 +3685,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="274504016"/>
-        <c:axId val="274502840"/>
+        <c:axId val="159512624"/>
+        <c:axId val="159513016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="274504016"/>
+        <c:axId val="159512624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,6 +3709,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3696,12 +3802,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274502840"/>
+        <c:crossAx val="159513016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="274502840"/>
+        <c:axId val="159513016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3721,6 +3827,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MEDV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3758,7 +3920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274504016"/>
+        <c:crossAx val="159512624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3822,6 +3984,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LSTAT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> VS MEDV</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6856,11 +7048,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241859200"/>
-        <c:axId val="241858416"/>
+        <c:axId val="267069920"/>
+        <c:axId val="267070312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241859200"/>
+        <c:axId val="267069920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6880,6 +7072,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LSTAT</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6917,12 +7165,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241858416"/>
+        <c:crossAx val="267070312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241858416"/>
+        <c:axId val="267070312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6942,6 +7190,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MEDV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6979,7 +7283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241859200"/>
+        <c:crossAx val="267069920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7043,6 +7347,3389 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RM VS LSTAT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>housing!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSTAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>housing!$A$2:$A$490</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="489"/>
+                <c:pt idx="0">
+                  <c:v>6.5750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4210000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.1420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.9240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.8129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0469999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.7130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.0720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.7009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.9329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.8410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.9660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.5949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.024</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.1689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.2110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.069</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.6820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.7859999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.399</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.6020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.1150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.5110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.9980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.8879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.2489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.383</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.8159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.1449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.7409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.9660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.4560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.7619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.29</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.7869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.8780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.5940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.8849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.4169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.0650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.2450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.2729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.2859999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.2789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.14</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.2320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.8739999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.7270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.6189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.3019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.3890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.63</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.1210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.0069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.0789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.4169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.4050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.4420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.2110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.2489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.1630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.0690000000000008</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.82</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.4160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.7270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.7809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.4050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.1369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.851</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.8360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.1269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.4740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.2290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.1950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.7149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.9130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.0919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.2539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.9279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.1760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.0209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.8719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.7309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.0039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.9610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.8789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.9859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.6130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.6929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.431</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.6369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.4580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.3259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.3719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.8220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.7569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.335</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.9420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.4539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.8570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.1509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.1740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.0190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.4029999999999996</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.468</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.9029999999999996</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.6280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.9260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.5970000000000004</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.1219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5.0119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5.7089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.1289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.1520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5.2720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.9429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.0659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.101</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5.8769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.319</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.4020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5.5720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.4160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.859</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.5460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.3150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.7649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.1550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.5629999999999997</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.1529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.782</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6.556</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.1849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.9509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.7389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.2869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.1070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7.274</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>7.1349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.1619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>7.61</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7.8529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.891</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6.3259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5.7830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>6.0640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5.3440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5.8070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>6.375</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5.4119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>6.1820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5.8879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>6.6420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5.9509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>6.3730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>6.9509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>6.1639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>6.8789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>6.6180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>8.266</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>8.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7.1630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>7.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>6.5519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>7.4119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>8.3369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>8.2469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>6.726</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>6.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6.6310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7.3579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>6.4809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>6.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>6.8970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>6.0949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>6.3579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>6.3929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>5.593</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5.6050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>6.1079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>6.226</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>6.4329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>6.718</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>6.4870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>6.4379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>6.9569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>8.2590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>6.1079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>5.8760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>7.4539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>7.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>6.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>7.2030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>8.3979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>7.327</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>7.2060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>7.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>6.5380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>7.6909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>6.758</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>6.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>7.2670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>6.8259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>6.4820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>6.8120000000000003</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>7.82</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>6.968</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>7.6449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>7.0880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>6.4530000000000003</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>6.23</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>6.2089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>6.3150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>6.5650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>6.8609999999999998</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>7.1479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>6.63</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>6.1269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>6.0090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>6.6779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>6.5490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>6.3449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>7.0410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>6.8710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>6.59</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>6.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>6.9820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>7.2359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>6.6159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>6.8490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>6.6349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5.9720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>4.9729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>6.1219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>6.0229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>6.266</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>6.5670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5.7050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>5.9139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>5.782</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>6.3819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>6.1130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>6.4260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>6.0410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>5.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>6.415</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>6.431</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>6.3120000000000003</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>6.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>5.8680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>6.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>6.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>5.7060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>6.0309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>6.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>6.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>5.8689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>5.8949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>6.0590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>5.9850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>5.968</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>7.2409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>6.6959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>6.8739999999999997</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>6.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>5.8979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>6.516</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>6.6349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>6.9390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>6.49</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6.5789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>5.8840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>6.7279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>5.6630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>5.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>6.2119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>6.3949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>6.1269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>6.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>6.3979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>6.2510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>5.3620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>5.8029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3.5609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>4.9630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>3.863</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>4.9059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>4.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>7.3129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>6.649</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>6.7939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>6.2229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>6.968</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>6.5449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>5.5359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>4.3680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>5.2770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>4.6520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>5.39</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>5.7130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>6.0510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>5.0359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>6.1929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>5.8869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>6.4710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>6.4050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>5.7469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>5.4530000000000003</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>5.8520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>5.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>6.343</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>6.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>5.3490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>5.5309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>5.6829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>4.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>5.6079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>5.617</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>6.8520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>5.7569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>6.657</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>4.6280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>5.1550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>4.5190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>6.4340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>6.782</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>5.3040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>5.9569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>6.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>6.4109999999999996</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>5.6479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>6.1029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>5.5650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>5.8959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>5.8369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>6.202</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>6.1929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>6.3479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>6.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>6.4249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>6.4359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>6.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>6.6289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>6.4610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>6.1520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>5.9349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>5.6269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>5.8179999999999996</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>6.4059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>6.2190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>6.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>5.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>6.4589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>6.3410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>6.2510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>6.1849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>6.4169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>6.7489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>6.6550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>6.2969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>7.3929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>6.7279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>6.5250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>5.976</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>5.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>6.3010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>6.0810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>6.7009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>6.3760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>6.3170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>6.5129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>6.2089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>5.7590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>5.952</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>6.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>5.9260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>5.7130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>6.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>6.2290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>6.4370000000000003</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>5.4269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>6.1619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>6.484</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>5.3040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>6.1849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>6.2290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>6.242</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>7.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>5.7619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>5.8710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>6.3120000000000003</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>6.1139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>5.9050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>5.4539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>5.4139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>5.093</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>5.9829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>5.9829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>5.7069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>5.9260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>5.39</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>5.7939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>6.0190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>5.569</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>6.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>6.593</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>6.976</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>6.7939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>6.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>housing!$B$2:$B$490</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="489"/>
+                <c:pt idx="0">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.69</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.81</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.98</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.04</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.71</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30.81</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.45</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.44</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.09</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.94</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11.97</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.51</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.44</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.81</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.16</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11.34</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.21</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.19</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.67</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.63</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12.33</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16.47</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>18.66</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14.09</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>12.27</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>15.55</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>10.16</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>16.21</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>17.09</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>15.76</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>15.37</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>14.37</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>14.27</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>17.93</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>25.41</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>17.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>14.81</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>27.26</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>17.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>15.39</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>18.34</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>12.26</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>11.12</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>15.03</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>17.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>16.96</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14.59</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>21.32</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>18.46</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>24.16</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>34.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>26.82</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>26.42</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>29.29</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>16.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>29.53</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>28.32</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>21.45</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.79</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.12</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>16.14</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12.14</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>11.32</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>14.43</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12.03</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>14.69</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>9.64</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>10.11</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.29</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.92</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.39</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4.6900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>8.61</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10.87</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10.97</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>18.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>14.66</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>23.09</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>17.27</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>23.98</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>16.03</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>9.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>29.55</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>9.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>13.51</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>9.69</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>17.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>9.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>21.46</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>9.93</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>11.65</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>10.88</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>7.37</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>11.22</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>18.46</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>9.52</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>6.57</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>7.79</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>9.59</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5.91</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>13.65</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>6.59</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>7.19</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>12.93</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>8.58</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>15.84</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>8.67</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>7.53</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>9.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>11.72</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>18.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>15.94</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>10.36</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>12.73</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6.87</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>11.74</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>12.79</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>9.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>12.43</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>8.01</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>10.56</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>9.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>4.6100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>10.53</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>12.67</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>7.79</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>13.27</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>11.48</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>12.67</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>7.79</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>14.19</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>13.33</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>34.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>37.97</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>23.24</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>21.24</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>23.69</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>21.78</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>17.21</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>21.08</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>24.56</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>30.63</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>30.81</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>28.28</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>31.99</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>30.62</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>20.85</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>17.11</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>18.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>25.68</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>15.17</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>16.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>17.12</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>19.37</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>19.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>30.59</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>29.97</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>26.77</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>20.32</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>20.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>19.77</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>27.38</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>22.98</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>23.34</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>19.78</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>10.11</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>21.22</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>34.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>20.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>36.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>29.05</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>25.79</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>26.64</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>20.62</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>22.74</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>23.29</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>17.16</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>24.39</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>15.69</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>14.52</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>21.52</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>24.08</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>17.64</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>19.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>12.03</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>16.22</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>15.17</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>23.27</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>18.05</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>26.45</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>34.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>22.88</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>22.11</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>19.52</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>16.59</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>18.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>23.79</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>23.98</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>17.79</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>16.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>18.13</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>19.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>17.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>17.73</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>17.27</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>16.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>18.71</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>18.13</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>19.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>16.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>16.23</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>16.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>14.65</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>13.99</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>10.29</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>13.22</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>14.13</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>17.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>21.32</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>18.13</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>14.76</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>16.29</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>12.87</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>14.36</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>11.66</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>18.14</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>18.68</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>24.91</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>18.03</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>13.11</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>10.74</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>10.42</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>13.34</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>10.58</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>14.98</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>11.45</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>18.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>23.97</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>29.68</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>13.35</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>12.01</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>13.59</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>21.14</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>14.33</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>7.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="272926896"/>
+        <c:axId val="272926504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="272926896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272926504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="272926504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LSTAT</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272926896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PTRATIO VS MEDV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -10077,11 +13764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="243206304"/>
-        <c:axId val="243206696"/>
+        <c:axId val="268811896"/>
+        <c:axId val="268812288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="243206304"/>
+        <c:axId val="268811896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10101,6 +13788,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PTRATIO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10138,12 +13881,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243206696"/>
+        <c:crossAx val="268812288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="243206696"/>
+        <c:axId val="268812288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10163,6 +13906,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MEDV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10200,7 +13999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243206304"/>
+        <c:crossAx val="268811896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10330,6 +14129,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11917,20 +15756,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4572000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>3829050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11952,20 +16307,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4572000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>3867150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11981,20 +16338,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3833812</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12009,7 +16366,53 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3867150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="H44:L48" totalsRowShown="0">
+  <autoFilter ref="H44:L48"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="RM"/>
+    <tableColumn id="3" name="LSTAT"/>
+    <tableColumn id="4" name="PTRATIO"/>
+    <tableColumn id="5" name="MEDV"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12275,15 +16678,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H490"/>
+  <dimension ref="A1:L490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -12752,7 +17154,7 @@
         <v>266700</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6.0720000000000001</v>
       </c>
@@ -12766,7 +17168,7 @@
         <v>304500</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.95</v>
       </c>
@@ -12780,7 +17182,7 @@
         <v>277200</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5.7009999999999996</v>
       </c>
@@ -12794,7 +17196,7 @@
         <v>275100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6.0960000000000001</v>
       </c>
@@ -12808,7 +17210,7 @@
         <v>283500</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5.9329999999999998</v>
       </c>
@@ -12822,7 +17224,7 @@
         <v>396900</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.8410000000000002</v>
       </c>
@@ -12836,7 +17238,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5.85</v>
       </c>
@@ -12850,7 +17252,7 @@
         <v>441000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5.9660000000000002</v>
       </c>
@@ -12864,7 +17266,7 @@
         <v>518700</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6.5949999999999998</v>
       </c>
@@ -12878,7 +17280,7 @@
         <v>646800</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7.024</v>
       </c>
@@ -12892,7 +17294,7 @@
         <v>732900</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6.77</v>
       </c>
@@ -12905,8 +17307,11 @@
       <c r="D43">
         <v>558600</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6.1689999999999996</v>
       </c>
@@ -12919,8 +17324,23 @@
       <c r="D44">
         <v>531300</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6.2110000000000003</v>
       </c>
@@ -12933,8 +17353,23 @@
       <c r="D45">
         <v>518700</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>-0.61203300000000005</v>
+      </c>
+      <c r="K45">
+        <v>-0.30455900000000002</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.69720899999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6.069</v>
       </c>
@@ -12947,8 +17382,20 @@
       <c r="D46">
         <v>445200</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0.36044500000000002</v>
+      </c>
+      <c r="L46" s="2">
+        <v>-0.76066999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.6820000000000004</v>
       </c>
@@ -12961,8 +17408,17 @@
       <c r="D47">
         <v>405300</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>-0.519034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.7859999999999996</v>
       </c>
@@ -12974,6 +17430,9 @@
       </c>
       <c r="D48">
         <v>420000</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -19166,6 +23625,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>